--- a/biology/Botanique/Feu_Pernet-Ducher/Feu_Pernet-Ducher.xlsx
+++ b/biology/Botanique/Feu_Pernet-Ducher/Feu_Pernet-Ducher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Feu Pernet-Ducher' est un cultivar de rosier obtenu en 1935 par le rosiériste français Charles Mallerin[1]. Il rend hommage au rosiériste lyonnais Joseph Pernet-Ducher (1859-1928)[2].
+'Feu Pernet-Ducher' est un cultivar de rosier obtenu en 1935 par le rosiériste français Charles Mallerin. Il rend hommage au rosiériste lyonnais Joseph Pernet-Ducher (1859-1928).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier hybride de thé présente des fleurs très doubles au beau coloris jaune citron et aux nuances pêche, dont les pétales pâlissent au fur et à mesure, et au parfum fruité[1]. La floraison est remontante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier hybride de thé présente des fleurs très doubles au beau coloris jaune citron et aux nuances pêche, dont les pétales pâlissent au fur et à mesure, et au parfum fruité. La floraison est remontante.
 Son buisson s'élève à 120 cm, parfois plus s'il est palissé.
-Sa zone de rusticité descend à 6b : il ne craint donc pas les hivers rigoureux et peut même se cultiver en moyenne montagne. Il nécessite un emplacement ensoleillé[3] et a besoin d'être taillé à l'abord du printemps pour favoriser la floraison sur les nouvelles branches[4].
-'Feu Pernet-Ducher' est issu d'un croisement 'Julien Potin' x 'Margaret McGredy'[4].
+Sa zone de rusticité descend à 6b : il ne craint donc pas les hivers rigoureux et peut même se cultiver en moyenne montagne. Il nécessite un emplacement ensoleillé et a besoin d'être taillé à l'abord du printemps pour favoriser la floraison sur les nouvelles branches.
+'Feu Pernet-Ducher' est issu d'un croisement 'Julien Potin' x 'Margaret McGredy'.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec 'Maréchal Niel' (Pradel, 1864), il a donné naissance à 'Diamond Jubilee' (Boerner, 1947).
 </t>
